--- a/read_tables_2/table06.xlsx
+++ b/read_tables_2/table06.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\ADC-sds\Essb\Reports, Paper, Tables\VOTING\Table Packages\2020 Voting Tables\Cleaned Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rusul\Documents\ECE 143\ece143\read_tables_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E155A53E-D6EB-440E-BC28-83A4EA1A0BA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B012FBEE-6503-4DA6-AD52-55E1A7AC11A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="780" windowWidth="27600" windowHeight="13470" xr2:uid="{6FB3D0A2-2788-4222-A555-939AC3FFD0A0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6FB3D0A2-2788-4222-A555-939AC3FFD0A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 6" sheetId="1" r:id="rId1"/>
@@ -204,6 +204,24 @@
     </r>
   </si>
   <si>
+    <t>NOTES:</t>
+  </si>
+  <si>
+    <t>For information on confidentiality protection, sampling error, nonsampling error, and definitions, see https://www.census.gov/programs-surveys/cps/technical-documentation/complete.2020.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Source: U.S. Census Bureau, Current Population Survey, November 2020.</t>
+  </si>
+  <si>
+    <t>Table 6a. Margins of Error for Estimates of Voting and Registration by Sex, Employment Status, Class of Worker and Disability Status: November 2020</t>
+  </si>
+  <si>
+    <t>DISABILITY STATUS</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">3 </t>
     </r>
@@ -218,25 +236,7 @@
     </r>
   </si>
   <si>
-    <t>NOTES:</t>
-  </si>
-  <si>
     <t>Estimates may not sum to totals due to rounding.</t>
-  </si>
-  <si>
-    <t>For information on confidentiality protection, sampling error, nonsampling error, and definitions, see https://www.census.gov/programs-surveys/cps/technical-documentation/complete.2020.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Source: U.S. Census Bureau, Current Population Survey, November 2020.</t>
-  </si>
-  <si>
-    <t>Table 6a. Margins of Error for Estimates of Voting and Registration by Sex, Employment Status, Class of Worker and Disability Status: November 2020</t>
-  </si>
-  <si>
-    <t>DISABILITY STATUS</t>
   </si>
 </sst>
 </file>
@@ -464,15 +464,19 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -482,13 +486,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -497,29 +498,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -536,7 +516,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -853,15 +853,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EE3FD0-2DA5-47D5-8EE0-3B953146D51C}">
   <dimension ref="A1:R89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="18" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.85546875" style="4"/>
+    <col min="19" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
@@ -869,3386 +871,3386 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="3" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="3" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="4" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="8" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="10"/>
-    </row>
-    <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="7" t="s">
+      <c r="R5" s="12"/>
+    </row>
+    <row r="6" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="8" t="s">
+      <c r="F6" s="12"/>
+      <c r="G6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="14" t="s">
+      <c r="H6" s="12"/>
+      <c r="I6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="8" t="s">
+      <c r="J6" s="16"/>
+      <c r="K6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="8" t="s">
+      <c r="L6" s="12"/>
+      <c r="M6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="10"/>
-      <c r="O6" s="14" t="s">
+      <c r="N6" s="12"/>
+      <c r="O6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="16" t="s">
+      <c r="P6" s="16"/>
+      <c r="Q6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="R6" s="16" t="s">
+      <c r="R6" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="16" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="L7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="16" t="s">
+      <c r="N7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="O7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="16" t="s">
+      <c r="P7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="16" t="s">
+      <c r="Q7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R7" s="16" t="s">
+      <c r="R7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="7">
         <v>252274</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="7">
         <v>231593</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="7">
         <v>168308</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="8">
         <v>72.7</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="7">
         <v>25782</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="8">
         <v>11.1</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="7">
         <v>37503</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="8">
         <v>16.2</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="7">
         <v>154628</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="8">
         <v>66.8</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="7">
         <v>40561</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="8">
         <v>17.5</v>
       </c>
-      <c r="O8" s="22">
+      <c r="O8" s="7">
         <v>36404</v>
       </c>
-      <c r="P8" s="23">
+      <c r="P8" s="8">
         <v>15.7</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="Q8" s="8">
         <v>66.7</v>
       </c>
-      <c r="R8" s="23">
+      <c r="R8" s="8">
         <v>61.3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="21" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="18"/>
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="7">
         <v>93172</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="7">
         <v>86660</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="7">
         <v>60308</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="8">
         <v>69.599999999999994</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="7">
         <v>10743</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="8">
         <v>12.4</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="7">
         <v>15610</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="8">
         <v>18</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="7">
         <v>55310</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="8">
         <v>63.8</v>
       </c>
-      <c r="M9" s="22">
+      <c r="M9" s="7">
         <v>16266</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N9" s="8">
         <v>18.8</v>
       </c>
-      <c r="O9" s="22">
+      <c r="O9" s="7">
         <v>15085</v>
       </c>
-      <c r="P9" s="23">
+      <c r="P9" s="8">
         <v>17.399999999999999</v>
       </c>
-      <c r="Q9" s="23">
+      <c r="Q9" s="8">
         <v>64.7</v>
       </c>
-      <c r="R9" s="23">
+      <c r="R9" s="8">
         <v>59.4</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="21" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="18"/>
+      <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="7">
         <v>159102</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="7">
         <v>144933</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="7">
         <v>108000</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="8">
         <v>74.5</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="7">
         <v>15039</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="8">
         <v>10.4</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="7">
         <v>21893</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="8">
         <v>15.1</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="7">
         <v>99318</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="8">
         <v>68.5</v>
       </c>
-      <c r="M10" s="22">
+      <c r="M10" s="7">
         <v>24295</v>
       </c>
-      <c r="N10" s="23">
+      <c r="N10" s="8">
         <v>16.8</v>
       </c>
-      <c r="O10" s="22">
+      <c r="O10" s="7">
         <v>21319</v>
       </c>
-      <c r="P10" s="23">
+      <c r="P10" s="8">
         <v>14.7</v>
       </c>
-      <c r="Q10" s="23">
+      <c r="Q10" s="8">
         <v>67.900000000000006</v>
       </c>
-      <c r="R10" s="23">
+      <c r="R10" s="8">
         <v>62.4</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="21" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="18"/>
+      <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="7">
         <v>20763</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="7">
         <v>20128</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="7">
         <v>16644</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="8">
         <v>82.7</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="7">
         <v>939</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="8">
         <v>4.7</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="7">
         <v>2545</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="8">
         <v>12.6</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="7">
         <v>15843</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="8">
         <v>78.7</v>
       </c>
-      <c r="M11" s="22">
+      <c r="M11" s="7">
         <v>1835</v>
       </c>
-      <c r="N11" s="23">
+      <c r="N11" s="8">
         <v>9.1</v>
       </c>
-      <c r="O11" s="22">
+      <c r="O11" s="7">
         <v>2450</v>
       </c>
-      <c r="P11" s="23">
+      <c r="P11" s="8">
         <v>12.2</v>
       </c>
-      <c r="Q11" s="23">
+      <c r="Q11" s="8">
         <v>80.2</v>
       </c>
-      <c r="R11" s="23">
+      <c r="R11" s="8">
         <v>76.3</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="21" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="18"/>
+      <c r="B12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="7">
         <v>118864</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="7">
         <v>107254</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="7">
         <v>78979</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="8">
         <v>73.599999999999994</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="7">
         <v>11568</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="8">
         <v>10.8</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="7">
         <v>16707</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="8">
         <v>15.6</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="7">
         <v>72357</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="8">
         <v>67.5</v>
       </c>
-      <c r="M12" s="22">
+      <c r="M12" s="7">
         <v>18556</v>
       </c>
-      <c r="N12" s="23">
+      <c r="N12" s="8">
         <v>17.3</v>
       </c>
-      <c r="O12" s="22">
+      <c r="O12" s="7">
         <v>16341</v>
       </c>
-      <c r="P12" s="23">
+      <c r="P12" s="8">
         <v>15.2</v>
       </c>
-      <c r="Q12" s="23">
+      <c r="Q12" s="8">
         <v>66.400000000000006</v>
       </c>
-      <c r="R12" s="23">
+      <c r="R12" s="8">
         <v>60.9</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="21" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+      <c r="B13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="7">
         <v>9540</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="7">
         <v>8483</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="7">
         <v>6254</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="8">
         <v>73.7</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="7">
         <v>921</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="8">
         <v>10.9</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="7">
         <v>1308</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="8">
         <v>15.4</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K13" s="7">
         <v>5879</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="8">
         <v>69.3</v>
       </c>
-      <c r="M13" s="22">
+      <c r="M13" s="7">
         <v>1334</v>
       </c>
-      <c r="N13" s="23">
+      <c r="N13" s="8">
         <v>15.7</v>
       </c>
-      <c r="O13" s="22">
+      <c r="O13" s="7">
         <v>1270</v>
       </c>
-      <c r="P13" s="23">
+      <c r="P13" s="8">
         <v>15</v>
       </c>
-      <c r="Q13" s="23">
+      <c r="Q13" s="8">
         <v>65.599999999999994</v>
       </c>
-      <c r="R13" s="23">
+      <c r="R13" s="8">
         <v>61.6</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="21" t="s">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="19"/>
+      <c r="B14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="7">
         <v>9936</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="7">
         <v>9068</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="7">
         <v>6123</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="8">
         <v>67.5</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="7">
         <v>1612</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="8">
         <v>17.8</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="7">
         <v>1333</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="8">
         <v>14.7</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="7">
         <v>5239</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="8">
         <v>57.8</v>
       </c>
-      <c r="M14" s="22">
+      <c r="M14" s="7">
         <v>2570</v>
       </c>
-      <c r="N14" s="23">
+      <c r="N14" s="8">
         <v>28.3</v>
       </c>
-      <c r="O14" s="22">
+      <c r="O14" s="7">
         <v>1259</v>
       </c>
-      <c r="P14" s="23">
+      <c r="P14" s="8">
         <v>13.9</v>
       </c>
-      <c r="Q14" s="23">
+      <c r="Q14" s="8">
         <v>61.6</v>
       </c>
-      <c r="R14" s="23">
+      <c r="R14" s="8">
         <v>52.7</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="7">
         <v>121870</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="7">
         <v>111485</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="7">
         <v>79340</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="8">
         <v>71.2</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="7">
         <v>13698</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="8">
         <v>12.3</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="7">
         <v>18447</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="8">
         <v>16.5</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K15" s="7">
         <v>72474</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="8">
         <v>65</v>
       </c>
-      <c r="M15" s="22">
+      <c r="M15" s="7">
         <v>21147</v>
       </c>
-      <c r="N15" s="23">
+      <c r="N15" s="8">
         <v>19</v>
       </c>
-      <c r="O15" s="22">
+      <c r="O15" s="7">
         <v>17863</v>
       </c>
-      <c r="P15" s="23">
+      <c r="P15" s="8">
         <v>16</v>
       </c>
-      <c r="Q15" s="23">
+      <c r="Q15" s="8">
         <v>65.099999999999994</v>
       </c>
-      <c r="R15" s="23">
+      <c r="R15" s="8">
         <v>59.5</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="21" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
+      <c r="B16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="7">
         <v>37624</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="7">
         <v>35948</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="7">
         <v>24577</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="8">
         <v>68.400000000000006</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="7">
         <v>4676</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="8">
         <v>13</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="7">
         <v>6694</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="8">
         <v>18.600000000000001</v>
       </c>
-      <c r="K16" s="22">
+      <c r="K16" s="7">
         <v>22453</v>
       </c>
-      <c r="L16" s="23">
+      <c r="L16" s="8">
         <v>62.5</v>
       </c>
-      <c r="M16" s="22">
+      <c r="M16" s="7">
         <v>6982</v>
       </c>
-      <c r="N16" s="23">
+      <c r="N16" s="8">
         <v>19.399999999999999</v>
       </c>
-      <c r="O16" s="22">
+      <c r="O16" s="7">
         <v>6512</v>
       </c>
-      <c r="P16" s="23">
+      <c r="P16" s="8">
         <v>18.100000000000001</v>
       </c>
-      <c r="Q16" s="23">
+      <c r="Q16" s="8">
         <v>65.3</v>
       </c>
-      <c r="R16" s="23">
+      <c r="R16" s="8">
         <v>59.7</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="21" t="s">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="18"/>
+      <c r="B17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="7">
         <v>84246</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="7">
         <v>75537</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="7">
         <v>54762</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="8">
         <v>72.5</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="7">
         <v>9021</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="8">
         <v>11.9</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="7">
         <v>11753</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="8">
         <v>15.6</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K17" s="7">
         <v>50021</v>
       </c>
-      <c r="L17" s="23">
+      <c r="L17" s="8">
         <v>66.2</v>
       </c>
-      <c r="M17" s="22">
+      <c r="M17" s="7">
         <v>14165</v>
       </c>
-      <c r="N17" s="23">
+      <c r="N17" s="8">
         <v>18.8</v>
       </c>
-      <c r="O17" s="22">
+      <c r="O17" s="7">
         <v>11351</v>
       </c>
-      <c r="P17" s="23">
+      <c r="P17" s="8">
         <v>15</v>
       </c>
-      <c r="Q17" s="23">
+      <c r="Q17" s="8">
         <v>65</v>
       </c>
-      <c r="R17" s="23">
+      <c r="R17" s="8">
         <v>59.4</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="21" t="s">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
+      <c r="B18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="7">
         <v>8938</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="7">
         <v>8658</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="7">
         <v>7204</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="8">
         <v>83.2</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="7">
         <v>418</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="8">
         <v>4.8</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="7">
         <v>1036</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="8">
         <v>12</v>
       </c>
-      <c r="K18" s="22">
+      <c r="K18" s="7">
         <v>6826</v>
       </c>
-      <c r="L18" s="23">
+      <c r="L18" s="8">
         <v>78.8</v>
       </c>
-      <c r="M18" s="22">
+      <c r="M18" s="7">
         <v>863</v>
       </c>
-      <c r="N18" s="23">
+      <c r="N18" s="8">
         <v>10</v>
       </c>
-      <c r="O18" s="22">
+      <c r="O18" s="7">
         <v>969</v>
       </c>
-      <c r="P18" s="23">
+      <c r="P18" s="8">
         <v>11.2</v>
       </c>
-      <c r="Q18" s="23">
+      <c r="Q18" s="8">
         <v>80.599999999999994</v>
       </c>
-      <c r="R18" s="23">
+      <c r="R18" s="8">
         <v>76.400000000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="21" t="s">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="18"/>
+      <c r="B19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="7">
         <v>64241</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="7">
         <v>56986</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="7">
         <v>40927</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="8">
         <v>71.8</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="7">
         <v>6891</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="8">
         <v>12.1</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="7">
         <v>9169</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="8">
         <v>16.100000000000001</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K19" s="7">
         <v>37283</v>
       </c>
-      <c r="L19" s="23">
+      <c r="L19" s="8">
         <v>65.400000000000006</v>
       </c>
-      <c r="M19" s="22">
+      <c r="M19" s="7">
         <v>10799</v>
       </c>
-      <c r="N19" s="23">
+      <c r="N19" s="8">
         <v>18.899999999999999</v>
       </c>
-      <c r="O19" s="22">
+      <c r="O19" s="7">
         <v>8905</v>
       </c>
-      <c r="P19" s="23">
+      <c r="P19" s="8">
         <v>15.6</v>
       </c>
-      <c r="Q19" s="23">
+      <c r="Q19" s="8">
         <v>63.7</v>
       </c>
-      <c r="R19" s="23">
+      <c r="R19" s="8">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="21" t="s">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="18"/>
+      <c r="B20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="7">
         <v>5636</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="7">
         <v>4871</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="7">
         <v>3397</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="8">
         <v>69.7</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="7">
         <v>669</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="8">
         <v>13.7</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="7">
         <v>806</v>
       </c>
-      <c r="J20" s="23">
+      <c r="J20" s="8">
         <v>16.5</v>
       </c>
-      <c r="K20" s="22">
+      <c r="K20" s="7">
         <v>3170</v>
       </c>
-      <c r="L20" s="23">
+      <c r="L20" s="8">
         <v>65.099999999999994</v>
       </c>
-      <c r="M20" s="22">
+      <c r="M20" s="7">
         <v>928</v>
       </c>
-      <c r="N20" s="23">
+      <c r="N20" s="8">
         <v>19</v>
       </c>
-      <c r="O20" s="22">
+      <c r="O20" s="7">
         <v>773</v>
       </c>
-      <c r="P20" s="23">
+      <c r="P20" s="8">
         <v>15.9</v>
       </c>
-      <c r="Q20" s="23">
+      <c r="Q20" s="8">
         <v>60.3</v>
       </c>
-      <c r="R20" s="23">
+      <c r="R20" s="8">
         <v>56.3</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="21" t="s">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="19"/>
+      <c r="B21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="7">
         <v>5431</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="7">
         <v>5022</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="7">
         <v>3235</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="8">
         <v>64.400000000000006</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="7">
         <v>1043</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="8">
         <v>20.8</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="7">
         <v>743</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="8">
         <v>14.8</v>
       </c>
-      <c r="K21" s="22">
+      <c r="K21" s="7">
         <v>2742</v>
       </c>
-      <c r="L21" s="23">
+      <c r="L21" s="8">
         <v>54.6</v>
       </c>
-      <c r="M21" s="22">
+      <c r="M21" s="7">
         <v>1576</v>
       </c>
-      <c r="N21" s="23">
+      <c r="N21" s="8">
         <v>31.4</v>
       </c>
-      <c r="O21" s="22">
+      <c r="O21" s="7">
         <v>703</v>
       </c>
-      <c r="P21" s="23">
+      <c r="P21" s="8">
         <v>14</v>
       </c>
-      <c r="Q21" s="23">
+      <c r="Q21" s="8">
         <v>59.6</v>
       </c>
-      <c r="R21" s="23">
+      <c r="R21" s="8">
         <v>50.5</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="7">
         <v>130404</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="7">
         <v>120108</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="7">
         <v>88968</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="8">
         <v>74.099999999999994</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="7">
         <v>12084</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="8">
         <v>10.1</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="7">
         <v>19055</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="8">
         <v>15.9</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K22" s="7">
         <v>82154</v>
       </c>
-      <c r="L22" s="23">
+      <c r="L22" s="8">
         <v>68.400000000000006</v>
       </c>
-      <c r="M22" s="22">
+      <c r="M22" s="7">
         <v>19414</v>
       </c>
-      <c r="N22" s="23">
+      <c r="N22" s="8">
         <v>16.2</v>
       </c>
-      <c r="O22" s="22">
+      <c r="O22" s="7">
         <v>18541</v>
       </c>
-      <c r="P22" s="23">
+      <c r="P22" s="8">
         <v>15.4</v>
       </c>
-      <c r="Q22" s="23">
+      <c r="Q22" s="8">
         <v>68.2</v>
       </c>
-      <c r="R22" s="23">
+      <c r="R22" s="8">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="21" t="s">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="18"/>
+      <c r="B23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="7">
         <v>55548</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="7">
         <v>50712</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="7">
         <v>35730</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="8">
         <v>70.5</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="7">
         <v>6066</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="8">
         <v>12</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="7">
         <v>8916</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="8">
         <v>17.600000000000001</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K23" s="7">
         <v>32856</v>
       </c>
-      <c r="L23" s="23">
+      <c r="L23" s="8">
         <v>64.8</v>
       </c>
-      <c r="M23" s="22">
+      <c r="M23" s="7">
         <v>9283</v>
       </c>
-      <c r="N23" s="23">
+      <c r="N23" s="8">
         <v>18.3</v>
       </c>
-      <c r="O23" s="22">
+      <c r="O23" s="7">
         <v>8572</v>
       </c>
-      <c r="P23" s="23">
+      <c r="P23" s="8">
         <v>16.899999999999999</v>
       </c>
-      <c r="Q23" s="23">
+      <c r="Q23" s="8">
         <v>64.3</v>
       </c>
-      <c r="R23" s="23">
+      <c r="R23" s="8">
         <v>59.1</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="21" t="s">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="18"/>
+      <c r="B24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="7">
         <v>74856</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="7">
         <v>69396</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="7">
         <v>53238</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="8">
         <v>76.7</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G24" s="7">
         <v>6018</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="8">
         <v>8.6999999999999993</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="7">
         <v>10140</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J24" s="8">
         <v>14.6</v>
       </c>
-      <c r="K24" s="22">
+      <c r="K24" s="7">
         <v>49297</v>
       </c>
-      <c r="L24" s="23">
+      <c r="L24" s="8">
         <v>71</v>
       </c>
-      <c r="M24" s="22">
+      <c r="M24" s="7">
         <v>10130</v>
       </c>
-      <c r="N24" s="23">
+      <c r="N24" s="8">
         <v>14.6</v>
       </c>
-      <c r="O24" s="22">
+      <c r="O24" s="7">
         <v>9968</v>
       </c>
-      <c r="P24" s="23">
+      <c r="P24" s="8">
         <v>14.4</v>
       </c>
-      <c r="Q24" s="23">
+      <c r="Q24" s="8">
         <v>71.099999999999994</v>
       </c>
-      <c r="R24" s="23">
+      <c r="R24" s="8">
         <v>65.900000000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="21" t="s">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="18"/>
+      <c r="B25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="7">
         <v>11825</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="7">
         <v>11470</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="7">
         <v>9440</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="8">
         <v>82.3</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="7">
         <v>521</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="8">
         <v>4.5</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="7">
         <v>1509</v>
       </c>
-      <c r="J25" s="23">
+      <c r="J25" s="8">
         <v>13.2</v>
       </c>
-      <c r="K25" s="22">
+      <c r="K25" s="7">
         <v>9017</v>
       </c>
-      <c r="L25" s="23">
+      <c r="L25" s="8">
         <v>78.599999999999994</v>
       </c>
-      <c r="M25" s="22">
+      <c r="M25" s="7">
         <v>973</v>
       </c>
-      <c r="N25" s="23">
+      <c r="N25" s="8">
         <v>8.5</v>
       </c>
-      <c r="O25" s="22">
+      <c r="O25" s="7">
         <v>1480</v>
       </c>
-      <c r="P25" s="23">
+      <c r="P25" s="8">
         <v>12.9</v>
       </c>
-      <c r="Q25" s="23">
+      <c r="Q25" s="8">
         <v>79.8</v>
       </c>
-      <c r="R25" s="23">
+      <c r="R25" s="8">
         <v>76.3</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="21" t="s">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="18"/>
+      <c r="B26" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="7">
         <v>54623</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="7">
         <v>50268</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="7">
         <v>38052</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="8">
         <v>75.7</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G26" s="7">
         <v>4677</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="8">
         <v>9.3000000000000007</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="7">
         <v>7538</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J26" s="8">
         <v>15</v>
       </c>
-      <c r="K26" s="22">
+      <c r="K26" s="7">
         <v>35074</v>
       </c>
-      <c r="L26" s="23">
+      <c r="L26" s="8">
         <v>69.8</v>
       </c>
-      <c r="M26" s="22">
+      <c r="M26" s="7">
         <v>7758</v>
       </c>
-      <c r="N26" s="23">
+      <c r="N26" s="8">
         <v>15.4</v>
       </c>
-      <c r="O26" s="22">
+      <c r="O26" s="7">
         <v>7436</v>
       </c>
-      <c r="P26" s="23">
+      <c r="P26" s="8">
         <v>14.8</v>
       </c>
-      <c r="Q26" s="23">
+      <c r="Q26" s="8">
         <v>69.7</v>
       </c>
-      <c r="R26" s="23">
+      <c r="R26" s="8">
         <v>64.2</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
-      <c r="B27" s="21" t="s">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="18"/>
+      <c r="B27" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="7">
         <v>3904</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="7">
         <v>3612</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="7">
         <v>2857</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="8">
         <v>79.099999999999994</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G27" s="7">
         <v>252</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="8">
         <v>7</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="7">
         <v>502</v>
       </c>
-      <c r="J27" s="23">
+      <c r="J27" s="8">
         <v>13.9</v>
       </c>
-      <c r="K27" s="22">
+      <c r="K27" s="7">
         <v>2709</v>
       </c>
-      <c r="L27" s="23">
+      <c r="L27" s="8">
         <v>75</v>
       </c>
-      <c r="M27" s="22">
+      <c r="M27" s="7">
         <v>406</v>
       </c>
-      <c r="N27" s="23">
+      <c r="N27" s="8">
         <v>11.3</v>
       </c>
-      <c r="O27" s="22">
+      <c r="O27" s="7">
         <v>496</v>
       </c>
-      <c r="P27" s="23">
+      <c r="P27" s="8">
         <v>13.7</v>
       </c>
-      <c r="Q27" s="23">
+      <c r="Q27" s="8">
         <v>73.2</v>
       </c>
-      <c r="R27" s="23">
+      <c r="R27" s="8">
         <v>69.400000000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="21" t="s">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="19"/>
+      <c r="B28" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="7">
         <v>4505</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="7">
         <v>4046</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="7">
         <v>2888</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F28" s="8">
         <v>71.400000000000006</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G28" s="7">
         <v>568</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="8">
         <v>14</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I28" s="7">
         <v>590</v>
       </c>
-      <c r="J28" s="23">
+      <c r="J28" s="8">
         <v>14.6</v>
       </c>
-      <c r="K28" s="22">
+      <c r="K28" s="7">
         <v>2497</v>
       </c>
-      <c r="L28" s="23">
+      <c r="L28" s="8">
         <v>61.7</v>
       </c>
-      <c r="M28" s="22">
+      <c r="M28" s="7">
         <v>994</v>
       </c>
-      <c r="N28" s="23">
+      <c r="N28" s="8">
         <v>24.6</v>
       </c>
-      <c r="O28" s="22">
+      <c r="O28" s="7">
         <v>555</v>
       </c>
-      <c r="P28" s="23">
+      <c r="P28" s="8">
         <v>13.7</v>
       </c>
-      <c r="Q28" s="23">
+      <c r="Q28" s="8">
         <v>64.099999999999994</v>
       </c>
-      <c r="R28" s="23">
+      <c r="R28" s="8">
         <v>55.4</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+    <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="7">
         <v>222696</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="7">
         <v>202872</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E29" s="7">
         <v>148179</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="8">
         <v>73</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G29" s="7">
         <v>21361</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="8">
         <v>10.5</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="7">
         <v>33332</v>
       </c>
-      <c r="J29" s="23">
+      <c r="J29" s="8">
         <v>16.399999999999999</v>
       </c>
-      <c r="K29" s="22">
+      <c r="K29" s="7">
         <v>136886</v>
       </c>
-      <c r="L29" s="23">
+      <c r="L29" s="8">
         <v>67.5</v>
       </c>
-      <c r="M29" s="22">
+      <c r="M29" s="7">
         <v>33492</v>
       </c>
-      <c r="N29" s="23">
+      <c r="N29" s="8">
         <v>16.5</v>
       </c>
-      <c r="O29" s="22">
+      <c r="O29" s="7">
         <v>32494</v>
       </c>
-      <c r="P29" s="23">
+      <c r="P29" s="8">
         <v>16</v>
       </c>
-      <c r="Q29" s="23">
+      <c r="Q29" s="8">
         <v>66.5</v>
       </c>
-      <c r="R29" s="23">
+      <c r="R29" s="8">
         <v>61.5</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="21" t="s">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" s="21"/>
+      <c r="B30" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="7">
         <v>29579</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="7">
         <v>28721</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E30" s="7">
         <v>20129</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30" s="8">
         <v>70.099999999999994</v>
       </c>
-      <c r="G30" s="22">
+      <c r="G30" s="7">
         <v>4421</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="8">
         <v>15.4</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="7">
         <v>4171</v>
       </c>
-      <c r="J30" s="23">
+      <c r="J30" s="8">
         <v>14.5</v>
       </c>
-      <c r="K30" s="22">
+      <c r="K30" s="7">
         <v>17742</v>
       </c>
-      <c r="L30" s="23">
+      <c r="L30" s="8">
         <v>61.8</v>
       </c>
-      <c r="M30" s="22">
+      <c r="M30" s="7">
         <v>7069</v>
       </c>
-      <c r="N30" s="23">
+      <c r="N30" s="8">
         <v>24.6</v>
       </c>
-      <c r="O30" s="22">
+      <c r="O30" s="7">
         <v>3910</v>
       </c>
-      <c r="P30" s="23">
+      <c r="P30" s="8">
         <v>13.6</v>
       </c>
-      <c r="Q30" s="23">
+      <c r="Q30" s="8">
         <v>68.099999999999994</v>
       </c>
-      <c r="R30" s="23">
+      <c r="R30" s="8">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="21" t="s">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" s="21"/>
+      <c r="B31" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="7">
         <v>9012</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="7">
         <v>8847</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E31" s="7">
         <v>6738</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F31" s="8">
         <v>76.2</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G31" s="7">
         <v>964</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="8">
         <v>10.9</v>
       </c>
-      <c r="I31" s="22">
+      <c r="I31" s="7">
         <v>1145</v>
       </c>
-      <c r="J31" s="23">
+      <c r="J31" s="8">
         <v>12.9</v>
       </c>
-      <c r="K31" s="22">
+      <c r="K31" s="7">
         <v>6063</v>
       </c>
-      <c r="L31" s="23">
+      <c r="L31" s="8">
         <v>68.5</v>
       </c>
-      <c r="M31" s="22">
+      <c r="M31" s="7">
         <v>1722</v>
       </c>
-      <c r="N31" s="23">
+      <c r="N31" s="8">
         <v>19.5</v>
       </c>
-      <c r="O31" s="22">
+      <c r="O31" s="7">
         <v>1061</v>
       </c>
-      <c r="P31" s="23">
+      <c r="P31" s="8">
         <v>12</v>
       </c>
-      <c r="Q31" s="23">
+      <c r="Q31" s="8">
         <v>74.8</v>
       </c>
-      <c r="R31" s="23">
+      <c r="R31" s="8">
         <v>67.3</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="21" t="s">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" s="21"/>
+      <c r="B32" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C32" s="7">
         <v>4032</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="7">
         <v>3871</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E32" s="7">
         <v>2609</v>
       </c>
-      <c r="F32" s="23">
+      <c r="F32" s="8">
         <v>67.400000000000006</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32" s="7">
         <v>637</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H32" s="8">
         <v>16.399999999999999</v>
       </c>
-      <c r="I32" s="22">
+      <c r="I32" s="7">
         <v>625</v>
       </c>
-      <c r="J32" s="23">
+      <c r="J32" s="8">
         <v>16.2</v>
       </c>
-      <c r="K32" s="22">
+      <c r="K32" s="7">
         <v>2293</v>
       </c>
-      <c r="L32" s="23">
+      <c r="L32" s="8">
         <v>59.2</v>
       </c>
-      <c r="M32" s="22">
+      <c r="M32" s="7">
         <v>1016</v>
       </c>
-      <c r="N32" s="23">
+      <c r="N32" s="8">
         <v>26.2</v>
       </c>
-      <c r="O32" s="22">
+      <c r="O32" s="7">
         <v>562</v>
       </c>
-      <c r="P32" s="23">
+      <c r="P32" s="8">
         <v>14.5</v>
       </c>
-      <c r="Q32" s="23">
+      <c r="Q32" s="8">
         <v>64.7</v>
       </c>
-      <c r="R32" s="23">
+      <c r="R32" s="8">
         <v>56.9</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="21" t="s">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33" s="21"/>
+      <c r="B33" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="22">
+      <c r="C33" s="7">
         <v>9393</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="7">
         <v>9167</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="7">
         <v>5643</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F33" s="8">
         <v>61.6</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="7">
         <v>2063</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="8">
         <v>22.5</v>
       </c>
-      <c r="I33" s="22">
+      <c r="I33" s="7">
         <v>1461</v>
       </c>
-      <c r="J33" s="23">
+      <c r="J33" s="8">
         <v>15.9</v>
       </c>
-      <c r="K33" s="22">
+      <c r="K33" s="7">
         <v>4650</v>
       </c>
-      <c r="L33" s="23">
+      <c r="L33" s="8">
         <v>50.7</v>
       </c>
-      <c r="M33" s="22">
+      <c r="M33" s="7">
         <v>3182</v>
       </c>
-      <c r="N33" s="23">
+      <c r="N33" s="8">
         <v>34.700000000000003</v>
       </c>
-      <c r="O33" s="22">
+      <c r="O33" s="7">
         <v>1335</v>
       </c>
-      <c r="P33" s="23">
+      <c r="P33" s="8">
         <v>14.6</v>
       </c>
-      <c r="Q33" s="23">
+      <c r="Q33" s="8">
         <v>60.1</v>
       </c>
-      <c r="R33" s="23">
+      <c r="R33" s="8">
         <v>49.5</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="21" t="s">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" s="21"/>
+      <c r="B34" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="7">
         <v>16842</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="7">
         <v>16299</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E34" s="7">
         <v>11312</v>
       </c>
-      <c r="F34" s="23">
+      <c r="F34" s="8">
         <v>69.400000000000006</v>
       </c>
-      <c r="G34" s="22">
+      <c r="G34" s="7">
         <v>2470</v>
       </c>
-      <c r="H34" s="23">
+      <c r="H34" s="8">
         <v>15.2</v>
       </c>
-      <c r="I34" s="22">
+      <c r="I34" s="7">
         <v>2518</v>
       </c>
-      <c r="J34" s="23">
+      <c r="J34" s="8">
         <v>15.4</v>
       </c>
-      <c r="K34" s="22">
+      <c r="K34" s="7">
         <v>9841</v>
       </c>
-      <c r="L34" s="23">
+      <c r="L34" s="8">
         <v>60.4</v>
       </c>
-      <c r="M34" s="22">
+      <c r="M34" s="7">
         <v>4096</v>
       </c>
-      <c r="N34" s="23">
+      <c r="N34" s="8">
         <v>25.1</v>
       </c>
-      <c r="O34" s="22">
+      <c r="O34" s="7">
         <v>2362</v>
       </c>
-      <c r="P34" s="23">
+      <c r="P34" s="8">
         <v>14.5</v>
       </c>
-      <c r="Q34" s="23">
+      <c r="Q34" s="8">
         <v>67.2</v>
       </c>
-      <c r="R34" s="23">
+      <c r="R34" s="8">
         <v>58.4</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="21" t="s">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35" s="21"/>
+      <c r="B35" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C35" s="7">
         <v>4771</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="7">
         <v>4571</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="7">
         <v>2829</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="8">
         <v>61.9</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="7">
         <v>891</v>
       </c>
-      <c r="H35" s="23">
+      <c r="H35" s="8">
         <v>19.5</v>
       </c>
-      <c r="I35" s="22">
+      <c r="I35" s="7">
         <v>850</v>
       </c>
-      <c r="J35" s="23">
+      <c r="J35" s="8">
         <v>18.600000000000001</v>
       </c>
-      <c r="K35" s="22">
+      <c r="K35" s="7">
         <v>2257</v>
       </c>
-      <c r="L35" s="23">
+      <c r="L35" s="8">
         <v>49.4</v>
       </c>
-      <c r="M35" s="22">
+      <c r="M35" s="7">
         <v>1549</v>
       </c>
-      <c r="N35" s="23">
+      <c r="N35" s="8">
         <v>33.9</v>
       </c>
-      <c r="O35" s="22">
+      <c r="O35" s="7">
         <v>765</v>
       </c>
-      <c r="P35" s="23">
+      <c r="P35" s="8">
         <v>16.7</v>
       </c>
-      <c r="Q35" s="23">
+      <c r="Q35" s="8">
         <v>59.3</v>
       </c>
-      <c r="R35" s="23">
+      <c r="R35" s="8">
         <v>47.3</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="21" t="s">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A36" s="22"/>
+      <c r="B36" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="22">
+      <c r="C36" s="7">
         <v>10657</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="7">
         <v>10314</v>
       </c>
-      <c r="E36" s="22">
+      <c r="E36" s="7">
         <v>6369</v>
       </c>
-      <c r="F36" s="23">
+      <c r="F36" s="8">
         <v>61.8</v>
       </c>
-      <c r="G36" s="22">
+      <c r="G36" s="7">
         <v>2098</v>
       </c>
-      <c r="H36" s="23">
+      <c r="H36" s="8">
         <v>20.3</v>
       </c>
-      <c r="I36" s="22">
+      <c r="I36" s="7">
         <v>1846</v>
       </c>
-      <c r="J36" s="23">
+      <c r="J36" s="8">
         <v>17.899999999999999</v>
       </c>
-      <c r="K36" s="22">
+      <c r="K36" s="7">
         <v>5321</v>
       </c>
-      <c r="L36" s="23">
+      <c r="L36" s="8">
         <v>51.6</v>
       </c>
-      <c r="M36" s="22">
+      <c r="M36" s="7">
         <v>3320</v>
       </c>
-      <c r="N36" s="23">
+      <c r="N36" s="8">
         <v>32.200000000000003</v>
       </c>
-      <c r="O36" s="22">
+      <c r="O36" s="7">
         <v>1673</v>
       </c>
-      <c r="P36" s="23">
+      <c r="P36" s="8">
         <v>16.2</v>
       </c>
-      <c r="Q36" s="23">
+      <c r="Q36" s="8">
         <v>59.8</v>
       </c>
-      <c r="R36" s="23">
+      <c r="R36" s="8">
         <v>49.9</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:18" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
+    <row r="37" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:18" s="3" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:18" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="29" t="s">
+    <row r="39" spans="1:18" s="3" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:18" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="29" t="s">
+    <row r="40" spans="1:18" s="3" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" s="3" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+    <row r="42" spans="1:18" s="3" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" s="3" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:18" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+    <row r="44" spans="1:18" s="3" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:18" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+    <row r="45" spans="1:18" s="3" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+    <row r="46" spans="1:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:18" s="3" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:18" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" s="3" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+    <row r="49" spans="1:17" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="8" t="s">
+      <c r="B50" s="24"/>
+      <c r="C50" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="8" t="s">
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="Q50" s="10"/>
-    </row>
-    <row r="51" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="7" t="s">
+      <c r="Q50" s="12"/>
+    </row>
+    <row r="51" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="25"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="8" t="s">
+      <c r="E51" s="12"/>
+      <c r="F51" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G51" s="10"/>
-      <c r="H51" s="14" t="s">
+      <c r="G51" s="12"/>
+      <c r="H51" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I51" s="15"/>
-      <c r="J51" s="8" t="s">
+      <c r="I51" s="16"/>
+      <c r="J51" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K51" s="10"/>
-      <c r="L51" s="8" t="s">
+      <c r="K51" s="12"/>
+      <c r="L51" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M51" s="10"/>
-      <c r="N51" s="14" t="s">
+      <c r="M51" s="12"/>
+      <c r="N51" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="O51" s="15"/>
-      <c r="P51" s="16" t="s">
+      <c r="O51" s="16"/>
+      <c r="P51" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Q51" s="16" t="s">
+      <c r="Q51" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="16" t="s">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" s="27"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F52" s="16" t="s">
+      <c r="F52" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G52" s="16" t="s">
+      <c r="G52" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H52" s="16" t="s">
+      <c r="H52" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I52" s="16" t="s">
+      <c r="I52" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J52" s="16" t="s">
+      <c r="J52" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K52" s="16" t="s">
+      <c r="K52" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L52" s="16" t="s">
+      <c r="L52" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M52" s="16" t="s">
+      <c r="M52" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N52" s="16" t="s">
+      <c r="N52" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O52" s="16" t="s">
+      <c r="O52" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P52" s="16" t="s">
+      <c r="P52" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q52" s="16" t="s">
+      <c r="Q52" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="20" t="s">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="22">
+      <c r="C53" s="7">
         <v>586</v>
       </c>
-      <c r="D53" s="22">
+      <c r="D53" s="7">
         <v>924</v>
       </c>
-      <c r="E53" s="23">
+      <c r="E53" s="8">
         <v>0.4</v>
       </c>
-      <c r="F53" s="22">
+      <c r="F53" s="7">
         <v>583</v>
       </c>
-      <c r="G53" s="23">
+      <c r="G53" s="8">
         <v>0.3</v>
       </c>
-      <c r="H53" s="22">
+      <c r="H53" s="7">
         <v>685</v>
       </c>
-      <c r="I53" s="23">
+      <c r="I53" s="8">
         <v>0.3</v>
       </c>
-      <c r="J53" s="22">
+      <c r="J53" s="7">
         <v>952</v>
       </c>
-      <c r="K53" s="23">
+      <c r="K53" s="8">
         <v>0.4</v>
       </c>
-      <c r="L53" s="22">
+      <c r="L53" s="7">
         <v>707</v>
       </c>
-      <c r="M53" s="23">
+      <c r="M53" s="8">
         <v>0.3</v>
       </c>
-      <c r="N53" s="22">
+      <c r="N53" s="7">
         <v>677</v>
       </c>
-      <c r="O53" s="23">
+      <c r="O53" s="8">
         <v>0.3</v>
       </c>
-      <c r="P53" s="23">
+      <c r="P53" s="8">
         <v>0.4</v>
       </c>
-      <c r="Q53" s="23">
+      <c r="Q53" s="8">
         <v>0.4</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="24"/>
-      <c r="B54" s="21" t="s">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" s="18"/>
+      <c r="B54" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="22">
+      <c r="C54" s="7">
         <v>918</v>
       </c>
-      <c r="D54" s="22">
+      <c r="D54" s="7">
         <v>822</v>
       </c>
-      <c r="E54" s="23">
+      <c r="E54" s="8">
         <v>0.6</v>
       </c>
-      <c r="F54" s="22">
+      <c r="F54" s="7">
         <v>388</v>
       </c>
-      <c r="G54" s="23">
+      <c r="G54" s="8">
         <v>0.4</v>
       </c>
-      <c r="H54" s="22">
+      <c r="H54" s="7">
         <v>463</v>
       </c>
-      <c r="I54" s="23">
+      <c r="I54" s="8">
         <v>0.5</v>
       </c>
-      <c r="J54" s="22">
+      <c r="J54" s="7">
         <v>798</v>
       </c>
-      <c r="K54" s="23">
+      <c r="K54" s="8">
         <v>0.6</v>
       </c>
-      <c r="L54" s="22">
+      <c r="L54" s="7">
         <v>472</v>
       </c>
-      <c r="M54" s="23">
+      <c r="M54" s="8">
         <v>0.5</v>
       </c>
-      <c r="N54" s="22">
+      <c r="N54" s="7">
         <v>456</v>
       </c>
-      <c r="O54" s="23">
+      <c r="O54" s="8">
         <v>0.5</v>
       </c>
-      <c r="P54" s="23">
+      <c r="P54" s="8">
         <v>0.6</v>
       </c>
-      <c r="Q54" s="23">
+      <c r="Q54" s="8">
         <v>0.6</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="24"/>
-      <c r="B55" s="21" t="s">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="18"/>
+      <c r="B55" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="22">
+      <c r="C55" s="7">
         <v>964</v>
       </c>
-      <c r="D55" s="22">
+      <c r="D55" s="7">
         <v>958</v>
       </c>
-      <c r="E55" s="23">
+      <c r="E55" s="8">
         <v>0.4</v>
       </c>
-      <c r="F55" s="22">
+      <c r="F55" s="7">
         <v>455</v>
       </c>
-      <c r="G55" s="23">
+      <c r="G55" s="8">
         <v>0.3</v>
       </c>
-      <c r="H55" s="22">
+      <c r="H55" s="7">
         <v>542</v>
       </c>
-      <c r="I55" s="23">
+      <c r="I55" s="8">
         <v>0.4</v>
       </c>
-      <c r="J55" s="22">
+      <c r="J55" s="7">
         <v>945</v>
       </c>
-      <c r="K55" s="23">
+      <c r="K55" s="8">
         <v>0.5</v>
       </c>
-      <c r="L55" s="22">
+      <c r="L55" s="7">
         <v>568</v>
       </c>
-      <c r="M55" s="23">
+      <c r="M55" s="8">
         <v>0.4</v>
       </c>
-      <c r="N55" s="22">
+      <c r="N55" s="7">
         <v>535</v>
       </c>
-      <c r="O55" s="23">
+      <c r="O55" s="8">
         <v>0.4</v>
       </c>
-      <c r="P55" s="23">
+      <c r="P55" s="8">
         <v>0.4</v>
       </c>
-      <c r="Q55" s="23">
+      <c r="Q55" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="24"/>
-      <c r="B56" s="21" t="s">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="18"/>
+      <c r="B56" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="22">
+      <c r="C56" s="7">
         <v>521</v>
       </c>
-      <c r="D56" s="22">
+      <c r="D56" s="7">
         <v>477</v>
       </c>
-      <c r="E56" s="23">
+      <c r="E56" s="8">
         <v>1</v>
       </c>
-      <c r="F56" s="22">
+      <c r="F56" s="7">
         <v>117</v>
       </c>
-      <c r="G56" s="23">
+      <c r="G56" s="8">
         <v>0.6</v>
       </c>
-      <c r="H56" s="22">
+      <c r="H56" s="7">
         <v>192</v>
       </c>
-      <c r="I56" s="23">
+      <c r="I56" s="8">
         <v>0.9</v>
       </c>
-      <c r="J56" s="22">
+      <c r="J56" s="7">
         <v>467</v>
       </c>
-      <c r="K56" s="23">
+      <c r="K56" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L56" s="22">
+      <c r="L56" s="7">
         <v>163</v>
       </c>
-      <c r="M56" s="23">
+      <c r="M56" s="8">
         <v>0.8</v>
       </c>
-      <c r="N56" s="22">
+      <c r="N56" s="7">
         <v>188</v>
       </c>
-      <c r="O56" s="23">
+      <c r="O56" s="8">
         <v>0.9</v>
       </c>
-      <c r="P56" s="23">
+      <c r="P56" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q56" s="23">
+      <c r="Q56" s="8">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="24"/>
-      <c r="B57" s="21" t="s">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" s="18"/>
+      <c r="B57" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C57" s="22">
+      <c r="C57" s="7">
         <v>957</v>
       </c>
-      <c r="D57" s="22">
+      <c r="D57" s="7">
         <v>896</v>
       </c>
-      <c r="E57" s="23">
+      <c r="E57" s="8">
         <v>0.5</v>
       </c>
-      <c r="F57" s="22">
+      <c r="F57" s="7">
         <v>402</v>
       </c>
-      <c r="G57" s="23">
+      <c r="G57" s="8">
         <v>0.4</v>
       </c>
-      <c r="H57" s="22">
+      <c r="H57" s="7">
         <v>478</v>
       </c>
-      <c r="I57" s="23">
+      <c r="I57" s="8">
         <v>0.4</v>
       </c>
-      <c r="J57" s="22">
+      <c r="J57" s="7">
         <v>873</v>
       </c>
-      <c r="K57" s="23">
+      <c r="K57" s="8">
         <v>0.5</v>
       </c>
-      <c r="L57" s="22">
+      <c r="L57" s="7">
         <v>502</v>
       </c>
-      <c r="M57" s="23">
+      <c r="M57" s="8">
         <v>0.4</v>
       </c>
-      <c r="N57" s="22">
+      <c r="N57" s="7">
         <v>473</v>
       </c>
-      <c r="O57" s="23">
+      <c r="O57" s="8">
         <v>0.4</v>
       </c>
-      <c r="P57" s="23">
+      <c r="P57" s="8">
         <v>0.5</v>
       </c>
-      <c r="Q57" s="23">
+      <c r="Q57" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="24"/>
-      <c r="B58" s="21" t="s">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" s="18"/>
+      <c r="B58" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C58" s="22">
+      <c r="C58" s="7">
         <v>347</v>
       </c>
-      <c r="D58" s="22">
+      <c r="D58" s="7">
         <v>299</v>
       </c>
-      <c r="E58" s="23">
+      <c r="E58" s="8">
         <v>1.8</v>
       </c>
-      <c r="F58" s="22">
+      <c r="F58" s="7">
         <v>116</v>
       </c>
-      <c r="G58" s="23">
+      <c r="G58" s="8">
         <v>1.3</v>
       </c>
-      <c r="H58" s="22">
+      <c r="H58" s="7">
         <v>138</v>
       </c>
-      <c r="I58" s="23">
+      <c r="I58" s="8">
         <v>1.5</v>
       </c>
-      <c r="J58" s="22">
+      <c r="J58" s="7">
         <v>290</v>
       </c>
-      <c r="K58" s="23">
+      <c r="K58" s="8">
         <v>1.9</v>
       </c>
-      <c r="L58" s="22">
+      <c r="L58" s="7">
         <v>139</v>
       </c>
-      <c r="M58" s="23">
+      <c r="M58" s="8">
         <v>1.5</v>
       </c>
-      <c r="N58" s="22">
+      <c r="N58" s="7">
         <v>136</v>
       </c>
-      <c r="O58" s="23">
+      <c r="O58" s="8">
         <v>1.5</v>
       </c>
-      <c r="P58" s="23">
+      <c r="P58" s="8">
         <v>1.9</v>
       </c>
-      <c r="Q58" s="23">
+      <c r="Q58" s="8">
         <v>1.9</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="25"/>
-      <c r="B59" s="21" t="s">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="19"/>
+      <c r="B59" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C59" s="22">
+      <c r="C59" s="7">
         <v>358</v>
       </c>
-      <c r="D59" s="22">
+      <c r="D59" s="7">
         <v>296</v>
       </c>
-      <c r="E59" s="23">
+      <c r="E59" s="8">
         <v>1.9</v>
       </c>
-      <c r="F59" s="22">
+      <c r="F59" s="7">
         <v>153</v>
       </c>
-      <c r="G59" s="23">
+      <c r="G59" s="8">
         <v>1.5</v>
       </c>
-      <c r="H59" s="22">
+      <c r="H59" s="7">
         <v>139</v>
       </c>
-      <c r="I59" s="23">
+      <c r="I59" s="8">
         <v>1.4</v>
       </c>
-      <c r="J59" s="22">
+      <c r="J59" s="7">
         <v>274</v>
       </c>
-      <c r="K59" s="23">
+      <c r="K59" s="8">
         <v>2</v>
       </c>
-      <c r="L59" s="22">
+      <c r="L59" s="7">
         <v>193</v>
       </c>
-      <c r="M59" s="23">
+      <c r="M59" s="8">
         <v>1.8</v>
       </c>
-      <c r="N59" s="22">
+      <c r="N59" s="7">
         <v>135</v>
       </c>
-      <c r="O59" s="23">
+      <c r="O59" s="8">
         <v>1.4</v>
       </c>
-      <c r="P59" s="23">
+      <c r="P59" s="8">
         <v>1.9</v>
       </c>
-      <c r="Q59" s="23">
+      <c r="Q59" s="8">
         <v>1.9</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="20" t="s">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B60" s="21" t="s">
+      <c r="B60" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="22">
+      <c r="C60" s="7">
         <v>962</v>
       </c>
-      <c r="D60" s="22">
+      <c r="D60" s="7">
         <v>897</v>
       </c>
-      <c r="E60" s="23">
+      <c r="E60" s="8">
         <v>0.5</v>
       </c>
-      <c r="F60" s="22">
+      <c r="F60" s="7">
         <v>436</v>
       </c>
-      <c r="G60" s="23">
+      <c r="G60" s="8">
         <v>0.4</v>
       </c>
-      <c r="H60" s="22">
+      <c r="H60" s="7">
         <v>501</v>
       </c>
-      <c r="I60" s="23">
+      <c r="I60" s="8">
         <v>0.4</v>
       </c>
-      <c r="J60" s="22">
+      <c r="J60" s="7">
         <v>873</v>
       </c>
-      <c r="K60" s="23">
+      <c r="K60" s="8">
         <v>0.5</v>
       </c>
-      <c r="L60" s="22">
+      <c r="L60" s="7">
         <v>533</v>
       </c>
-      <c r="M60" s="23">
+      <c r="M60" s="8">
         <v>0.4</v>
       </c>
-      <c r="N60" s="22">
+      <c r="N60" s="7">
         <v>493</v>
       </c>
-      <c r="O60" s="23">
+      <c r="O60" s="8">
         <v>0.4</v>
       </c>
-      <c r="P60" s="23">
+      <c r="P60" s="8">
         <v>0.5</v>
       </c>
-      <c r="Q60" s="23">
+      <c r="Q60" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="24"/>
-      <c r="B61" s="21" t="s">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61" s="18"/>
+      <c r="B61" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C61" s="22">
+      <c r="C61" s="7">
         <v>673</v>
       </c>
-      <c r="D61" s="22">
+      <c r="D61" s="7">
         <v>571</v>
       </c>
-      <c r="E61" s="23">
+      <c r="E61" s="8">
         <v>0.9</v>
       </c>
-      <c r="F61" s="22">
+      <c r="F61" s="7">
         <v>259</v>
       </c>
-      <c r="G61" s="23">
+      <c r="G61" s="8">
         <v>0.7</v>
       </c>
-      <c r="H61" s="22">
+      <c r="H61" s="7">
         <v>309</v>
       </c>
-      <c r="I61" s="23">
+      <c r="I61" s="8">
         <v>0.8</v>
       </c>
-      <c r="J61" s="22">
+      <c r="J61" s="7">
         <v>548</v>
       </c>
-      <c r="K61" s="23">
+      <c r="K61" s="8">
         <v>1</v>
       </c>
-      <c r="L61" s="22">
+      <c r="L61" s="7">
         <v>315</v>
       </c>
-      <c r="M61" s="23">
+      <c r="M61" s="8">
         <v>0.8</v>
       </c>
-      <c r="N61" s="22">
+      <c r="N61" s="7">
         <v>305</v>
       </c>
-      <c r="O61" s="23">
+      <c r="O61" s="8">
         <v>0.8</v>
       </c>
-      <c r="P61" s="23">
+      <c r="P61" s="8">
         <v>0.9</v>
       </c>
-      <c r="Q61" s="23">
+      <c r="Q61" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="24"/>
-      <c r="B62" s="21" t="s">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62" s="18"/>
+      <c r="B62" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C62" s="22">
+      <c r="C62" s="7">
         <v>884</v>
       </c>
-      <c r="D62" s="22">
+      <c r="D62" s="7">
         <v>795</v>
       </c>
-      <c r="E62" s="23">
+      <c r="E62" s="8">
         <v>0.6</v>
       </c>
-      <c r="F62" s="22">
+      <c r="F62" s="7">
         <v>357</v>
       </c>
-      <c r="G62" s="23">
+      <c r="G62" s="8">
         <v>0.5</v>
       </c>
-      <c r="H62" s="22">
+      <c r="H62" s="7">
         <v>405</v>
       </c>
-      <c r="I62" s="23">
+      <c r="I62" s="8">
         <v>0.5</v>
       </c>
-      <c r="J62" s="22">
+      <c r="J62" s="7">
         <v>768</v>
       </c>
-      <c r="K62" s="23">
+      <c r="K62" s="8">
         <v>0.7</v>
       </c>
-      <c r="L62" s="22">
+      <c r="L62" s="7">
         <v>443</v>
       </c>
-      <c r="M62" s="23">
+      <c r="M62" s="8">
         <v>0.5</v>
       </c>
-      <c r="N62" s="22">
+      <c r="N62" s="7">
         <v>399</v>
       </c>
-      <c r="O62" s="23">
+      <c r="O62" s="8">
         <v>0.5</v>
       </c>
-      <c r="P62" s="23">
+      <c r="P62" s="8">
         <v>0.6</v>
       </c>
-      <c r="Q62" s="23">
+      <c r="Q62" s="8">
         <v>0.6</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="24"/>
-      <c r="B63" s="21" t="s">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63" s="18"/>
+      <c r="B63" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C63" s="22">
+      <c r="C63" s="7">
         <v>350</v>
       </c>
-      <c r="D63" s="22">
+      <c r="D63" s="7">
         <v>320</v>
       </c>
-      <c r="E63" s="23">
+      <c r="E63" s="8">
         <v>1.5</v>
       </c>
-      <c r="F63" s="22">
+      <c r="F63" s="7">
         <v>78</v>
       </c>
-      <c r="G63" s="23">
+      <c r="G63" s="8">
         <v>0.9</v>
       </c>
-      <c r="H63" s="22">
+      <c r="H63" s="7">
         <v>123</v>
       </c>
-      <c r="I63" s="23">
+      <c r="I63" s="8">
         <v>1.3</v>
       </c>
-      <c r="J63" s="22">
+      <c r="J63" s="7">
         <v>312</v>
       </c>
-      <c r="K63" s="23">
+      <c r="K63" s="8">
         <v>1.7</v>
       </c>
-      <c r="L63" s="22">
+      <c r="L63" s="7">
         <v>112</v>
       </c>
-      <c r="M63" s="23">
+      <c r="M63" s="8">
         <v>1.2</v>
       </c>
-      <c r="N63" s="22">
+      <c r="N63" s="7">
         <v>119</v>
       </c>
-      <c r="O63" s="23">
+      <c r="O63" s="8">
         <v>1.3</v>
       </c>
-      <c r="P63" s="23">
+      <c r="P63" s="8">
         <v>1.6</v>
       </c>
-      <c r="Q63" s="23">
+      <c r="Q63" s="8">
         <v>1.7</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="24"/>
-      <c r="B64" s="21" t="s">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A64" s="18"/>
+      <c r="B64" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C64" s="22">
+      <c r="C64" s="7">
         <v>806</v>
       </c>
-      <c r="D64" s="22">
+      <c r="D64" s="7">
         <v>710</v>
       </c>
-      <c r="E64" s="23">
+      <c r="E64" s="8">
         <v>0.7</v>
       </c>
-      <c r="F64" s="22">
+      <c r="F64" s="7">
         <v>313</v>
       </c>
-      <c r="G64" s="23">
+      <c r="G64" s="8">
         <v>0.5</v>
       </c>
-      <c r="H64" s="22">
+      <c r="H64" s="7">
         <v>360</v>
       </c>
-      <c r="I64" s="23">
+      <c r="I64" s="8">
         <v>0.6</v>
       </c>
-      <c r="J64" s="22">
+      <c r="J64" s="7">
         <v>683</v>
       </c>
-      <c r="K64" s="23">
+      <c r="K64" s="8">
         <v>0.8</v>
       </c>
-      <c r="L64" s="22">
+      <c r="L64" s="7">
         <v>389</v>
       </c>
-      <c r="M64" s="23">
+      <c r="M64" s="8">
         <v>0.6</v>
       </c>
-      <c r="N64" s="22">
+      <c r="N64" s="7">
         <v>355</v>
       </c>
-      <c r="O64" s="23">
+      <c r="O64" s="8">
         <v>0.6</v>
       </c>
-      <c r="P64" s="23">
+      <c r="P64" s="8">
         <v>0.7</v>
       </c>
-      <c r="Q64" s="23">
+      <c r="Q64" s="8">
         <v>0.7</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="24"/>
-      <c r="B65" s="21" t="s">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A65" s="18"/>
+      <c r="B65" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C65" s="22">
+      <c r="C65" s="7">
         <v>265</v>
       </c>
-      <c r="D65" s="22">
+      <c r="D65" s="7">
         <v>222</v>
       </c>
-      <c r="E65" s="23">
+      <c r="E65" s="8">
         <v>2.5</v>
       </c>
-      <c r="F65" s="22">
+      <c r="F65" s="7">
         <v>99</v>
       </c>
-      <c r="G65" s="23">
+      <c r="G65" s="8">
         <v>1.9</v>
       </c>
-      <c r="H65" s="22">
+      <c r="H65" s="7">
         <v>108</v>
       </c>
-      <c r="I65" s="23">
+      <c r="I65" s="8">
         <v>2</v>
       </c>
-      <c r="J65" s="22">
+      <c r="J65" s="7">
         <v>214</v>
       </c>
-      <c r="K65" s="23">
+      <c r="K65" s="8">
         <v>2.6</v>
       </c>
-      <c r="L65" s="22">
+      <c r="L65" s="7">
         <v>116</v>
       </c>
-      <c r="M65" s="23">
+      <c r="M65" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="N65" s="22">
+      <c r="N65" s="7">
         <v>106</v>
       </c>
-      <c r="O65" s="23">
+      <c r="O65" s="8">
         <v>2</v>
       </c>
-      <c r="P65" s="23">
+      <c r="P65" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q65" s="23">
+      <c r="Q65" s="8">
         <v>2.5</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="25"/>
-      <c r="B66" s="21" t="s">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A66" s="19"/>
+      <c r="B66" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="22">
+      <c r="C66" s="7">
         <v>269</v>
       </c>
-      <c r="D66" s="22">
+      <c r="D66" s="7">
         <v>216</v>
       </c>
-      <c r="E66" s="23">
+      <c r="E66" s="8">
         <v>2.6</v>
       </c>
-      <c r="F66" s="22">
+      <c r="F66" s="7">
         <v>123</v>
       </c>
-      <c r="G66" s="23">
+      <c r="G66" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H66" s="22">
+      <c r="H66" s="7">
         <v>104</v>
       </c>
-      <c r="I66" s="23">
+      <c r="I66" s="8">
         <v>1.9</v>
       </c>
-      <c r="J66" s="22">
+      <c r="J66" s="7">
         <v>199</v>
       </c>
-      <c r="K66" s="23">
+      <c r="K66" s="8">
         <v>2.7</v>
       </c>
-      <c r="L66" s="22">
+      <c r="L66" s="7">
         <v>151</v>
       </c>
-      <c r="M66" s="23">
+      <c r="M66" s="8">
         <v>2.5</v>
       </c>
-      <c r="N66" s="22">
+      <c r="N66" s="7">
         <v>101</v>
       </c>
-      <c r="O66" s="23">
+      <c r="O66" s="8">
         <v>1.9</v>
       </c>
-      <c r="P66" s="23">
+      <c r="P66" s="8">
         <v>2.5</v>
       </c>
-      <c r="Q66" s="23">
+      <c r="Q66" s="8">
         <v>2.6</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="20" t="s">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A67" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B67" s="21" t="s">
+      <c r="B67" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C67" s="22">
+      <c r="C67" s="7">
         <v>969</v>
       </c>
-      <c r="D67" s="22">
+      <c r="D67" s="7">
         <v>924</v>
       </c>
-      <c r="E67" s="23">
+      <c r="E67" s="8">
         <v>0.5</v>
       </c>
-      <c r="F67" s="22">
+      <c r="F67" s="7">
         <v>411</v>
       </c>
-      <c r="G67" s="23">
+      <c r="G67" s="8">
         <v>0.3</v>
       </c>
-      <c r="H67" s="22">
+      <c r="H67" s="7">
         <v>508</v>
       </c>
-      <c r="I67" s="23">
+      <c r="I67" s="8">
         <v>0.4</v>
       </c>
-      <c r="J67" s="22">
+      <c r="J67" s="7">
         <v>905</v>
       </c>
-      <c r="K67" s="23">
+      <c r="K67" s="8">
         <v>0.5</v>
       </c>
-      <c r="L67" s="22">
+      <c r="L67" s="7">
         <v>513</v>
       </c>
-      <c r="M67" s="23">
+      <c r="M67" s="8">
         <v>0.4</v>
       </c>
-      <c r="N67" s="22">
+      <c r="N67" s="7">
         <v>502</v>
       </c>
-      <c r="O67" s="23">
+      <c r="O67" s="8">
         <v>0.4</v>
       </c>
-      <c r="P67" s="23">
+      <c r="P67" s="8">
         <v>0.5</v>
       </c>
-      <c r="Q67" s="23">
+      <c r="Q67" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="24"/>
-      <c r="B68" s="21" t="s">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A68" s="18"/>
+      <c r="B68" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C68" s="22">
+      <c r="C68" s="7">
         <v>772</v>
       </c>
-      <c r="D68" s="22">
+      <c r="D68" s="7">
         <v>671</v>
       </c>
-      <c r="E68" s="23">
+      <c r="E68" s="8">
         <v>0.8</v>
       </c>
-      <c r="F68" s="22">
+      <c r="F68" s="7">
         <v>295</v>
       </c>
-      <c r="G68" s="23">
+      <c r="G68" s="8">
         <v>0.6</v>
       </c>
-      <c r="H68" s="22">
+      <c r="H68" s="7">
         <v>355</v>
       </c>
-      <c r="I68" s="23">
+      <c r="I68" s="8">
         <v>0.6</v>
       </c>
-      <c r="J68" s="22">
+      <c r="J68" s="7">
         <v>648</v>
       </c>
-      <c r="K68" s="23">
+      <c r="K68" s="8">
         <v>0.8</v>
       </c>
-      <c r="L68" s="22">
+      <c r="L68" s="7">
         <v>362</v>
       </c>
-      <c r="M68" s="23">
+      <c r="M68" s="8">
         <v>0.7</v>
       </c>
-      <c r="N68" s="22">
+      <c r="N68" s="7">
         <v>348</v>
       </c>
-      <c r="O68" s="23">
+      <c r="O68" s="8">
         <v>0.6</v>
       </c>
-      <c r="P68" s="23">
+      <c r="P68" s="8">
         <v>0.8</v>
       </c>
-      <c r="Q68" s="23">
+      <c r="Q68" s="8">
         <v>0.8</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="24"/>
-      <c r="B69" s="21" t="s">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A69" s="18"/>
+      <c r="B69" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="22">
+      <c r="C69" s="7">
         <v>862</v>
       </c>
-      <c r="D69" s="22">
+      <c r="D69" s="7">
         <v>786</v>
       </c>
-      <c r="E69" s="23">
+      <c r="E69" s="8">
         <v>0.6</v>
       </c>
-      <c r="F69" s="22">
+      <c r="F69" s="7">
         <v>293</v>
       </c>
-      <c r="G69" s="23">
+      <c r="G69" s="8">
         <v>0.4</v>
       </c>
-      <c r="H69" s="22">
+      <c r="H69" s="7">
         <v>378</v>
       </c>
-      <c r="I69" s="23">
+      <c r="I69" s="8">
         <v>0.5</v>
       </c>
-      <c r="J69" s="22">
+      <c r="J69" s="7">
         <v>764</v>
       </c>
-      <c r="K69" s="23">
+      <c r="K69" s="8">
         <v>0.7</v>
       </c>
-      <c r="L69" s="22">
+      <c r="L69" s="7">
         <v>377</v>
       </c>
-      <c r="M69" s="23">
+      <c r="M69" s="8">
         <v>0.5</v>
       </c>
-      <c r="N69" s="22">
+      <c r="N69" s="7">
         <v>375</v>
       </c>
-      <c r="O69" s="23">
+      <c r="O69" s="8">
         <v>0.5</v>
       </c>
-      <c r="P69" s="23">
+      <c r="P69" s="8">
         <v>0.6</v>
       </c>
-      <c r="Q69" s="23">
+      <c r="Q69" s="8">
         <v>0.7</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="24"/>
-      <c r="B70" s="21" t="s">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A70" s="18"/>
+      <c r="B70" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C70" s="22">
+      <c r="C70" s="7">
         <v>401</v>
       </c>
-      <c r="D70" s="22">
+      <c r="D70" s="7">
         <v>365</v>
       </c>
-      <c r="E70" s="23">
+      <c r="E70" s="8">
         <v>1.4</v>
       </c>
-      <c r="F70" s="22">
+      <c r="F70" s="7">
         <v>87</v>
       </c>
-      <c r="G70" s="23">
+      <c r="G70" s="8">
         <v>0.7</v>
       </c>
-      <c r="H70" s="22">
+      <c r="H70" s="7">
         <v>148</v>
       </c>
-      <c r="I70" s="23">
+      <c r="I70" s="8">
         <v>1.2</v>
       </c>
-      <c r="J70" s="22">
+      <c r="J70" s="7">
         <v>357</v>
       </c>
-      <c r="K70" s="23">
+      <c r="K70" s="8">
         <v>1.5</v>
       </c>
-      <c r="L70" s="22">
+      <c r="L70" s="7">
         <v>119</v>
       </c>
-      <c r="M70" s="23">
+      <c r="M70" s="8">
         <v>1</v>
       </c>
-      <c r="N70" s="22">
+      <c r="N70" s="7">
         <v>147</v>
       </c>
-      <c r="O70" s="23">
+      <c r="O70" s="8">
         <v>1.2</v>
       </c>
-      <c r="P70" s="23">
+      <c r="P70" s="8">
         <v>1.4</v>
       </c>
-      <c r="Q70" s="23">
+      <c r="Q70" s="8">
         <v>1.5</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="24"/>
-      <c r="B71" s="21" t="s">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A71" s="18"/>
+      <c r="B71" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C71" s="22">
+      <c r="C71" s="7">
         <v>770</v>
       </c>
-      <c r="D71" s="22">
+      <c r="D71" s="7">
         <v>689</v>
       </c>
-      <c r="E71" s="23">
+      <c r="E71" s="8">
         <v>0.7</v>
       </c>
-      <c r="F71" s="22">
+      <c r="F71" s="7">
         <v>259</v>
       </c>
-      <c r="G71" s="23">
+      <c r="G71" s="8">
         <v>0.5</v>
       </c>
-      <c r="H71" s="22">
+      <c r="H71" s="7">
         <v>327</v>
       </c>
-      <c r="I71" s="23">
+      <c r="I71" s="8">
         <v>0.6</v>
       </c>
-      <c r="J71" s="22">
+      <c r="J71" s="7">
         <v>666</v>
       </c>
-      <c r="K71" s="23">
+      <c r="K71" s="8">
         <v>0.8</v>
       </c>
-      <c r="L71" s="22">
+      <c r="L71" s="7">
         <v>332</v>
       </c>
-      <c r="M71" s="23">
+      <c r="M71" s="8">
         <v>0.6</v>
       </c>
-      <c r="N71" s="22">
+      <c r="N71" s="7">
         <v>325</v>
       </c>
-      <c r="O71" s="23">
+      <c r="O71" s="8">
         <v>0.6</v>
       </c>
-      <c r="P71" s="23">
+      <c r="P71" s="8">
         <v>0.8</v>
       </c>
-      <c r="Q71" s="23">
+      <c r="Q71" s="8">
         <v>0.8</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="24"/>
-      <c r="B72" s="21" t="s">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A72" s="18"/>
+      <c r="B72" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C72" s="22">
+      <c r="C72" s="7">
         <v>228</v>
       </c>
-      <c r="D72" s="22">
+      <c r="D72" s="7">
         <v>203</v>
       </c>
-      <c r="E72" s="23">
+      <c r="E72" s="8">
         <v>2.6</v>
       </c>
-      <c r="F72" s="22">
+      <c r="F72" s="7">
         <v>61</v>
       </c>
-      <c r="G72" s="23">
+      <c r="G72" s="8">
         <v>1.6</v>
       </c>
-      <c r="H72" s="22">
+      <c r="H72" s="7">
         <v>86</v>
       </c>
-      <c r="I72" s="23">
+      <c r="I72" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J72" s="22">
+      <c r="J72" s="7">
         <v>198</v>
       </c>
-      <c r="K72" s="23">
+      <c r="K72" s="8">
         <v>2.8</v>
       </c>
-      <c r="L72" s="22">
+      <c r="L72" s="7">
         <v>77</v>
       </c>
-      <c r="M72" s="23">
+      <c r="M72" s="8">
         <v>2</v>
       </c>
-      <c r="N72" s="22">
+      <c r="N72" s="7">
         <v>85</v>
       </c>
-      <c r="O72" s="23">
+      <c r="O72" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P72" s="23">
+      <c r="P72" s="8">
         <v>2.7</v>
       </c>
-      <c r="Q72" s="23">
+      <c r="Q72" s="8">
         <v>2.8</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73" s="25"/>
-      <c r="B73" s="21" t="s">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A73" s="19"/>
+      <c r="B73" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C73" s="22">
+      <c r="C73" s="7">
         <v>241</v>
       </c>
-      <c r="D73" s="22">
+      <c r="D73" s="7">
         <v>204</v>
       </c>
-      <c r="E73" s="23">
+      <c r="E73" s="8">
         <v>2.7</v>
       </c>
-      <c r="F73" s="22">
+      <c r="F73" s="7">
         <v>91</v>
       </c>
-      <c r="G73" s="23">
+      <c r="G73" s="8">
         <v>2.1</v>
       </c>
-      <c r="H73" s="22">
+      <c r="H73" s="7">
         <v>93</v>
       </c>
-      <c r="I73" s="23">
+      <c r="I73" s="8">
         <v>2.1</v>
       </c>
-      <c r="J73" s="22">
+      <c r="J73" s="7">
         <v>190</v>
       </c>
-      <c r="K73" s="23">
+      <c r="K73" s="8">
         <v>2.9</v>
       </c>
-      <c r="L73" s="22">
+      <c r="L73" s="7">
         <v>120</v>
       </c>
-      <c r="M73" s="23">
+      <c r="M73" s="8">
         <v>2.6</v>
       </c>
-      <c r="N73" s="22">
+      <c r="N73" s="7">
         <v>90</v>
       </c>
-      <c r="O73" s="23">
+      <c r="O73" s="8">
         <v>2.1</v>
       </c>
-      <c r="P73" s="23">
+      <c r="P73" s="8">
         <v>2.7</v>
       </c>
-      <c r="Q73" s="23">
+      <c r="Q73" s="8">
         <v>2.8</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B74" s="21" t="s">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A74" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C74" s="22">
+      <c r="C74" s="7">
         <v>795</v>
       </c>
-      <c r="D74" s="22">
+      <c r="D74" s="7">
         <v>960</v>
       </c>
-      <c r="E74" s="23">
+      <c r="E74" s="8">
         <v>0.4</v>
       </c>
-      <c r="F74" s="22">
+      <c r="F74" s="7">
         <v>536</v>
       </c>
-      <c r="G74" s="23">
+      <c r="G74" s="8">
         <v>0.3</v>
       </c>
-      <c r="H74" s="22">
+      <c r="H74" s="7">
         <v>652</v>
       </c>
-      <c r="I74" s="23">
+      <c r="I74" s="8">
         <v>0.3</v>
       </c>
-      <c r="J74" s="22">
+      <c r="J74" s="7">
         <v>969</v>
       </c>
-      <c r="K74" s="23">
+      <c r="K74" s="8">
         <v>0.4</v>
       </c>
-      <c r="L74" s="22">
+      <c r="L74" s="7">
         <v>653</v>
       </c>
-      <c r="M74" s="23">
+      <c r="M74" s="8">
         <v>0.3</v>
       </c>
-      <c r="N74" s="22">
+      <c r="N74" s="7">
         <v>645</v>
       </c>
-      <c r="O74" s="23">
+      <c r="O74" s="8">
         <v>0.3</v>
       </c>
-      <c r="P74" s="23">
+      <c r="P74" s="8">
         <v>0.4</v>
       </c>
-      <c r="Q74" s="23">
+      <c r="Q74" s="8">
         <v>0.4</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" s="24"/>
-      <c r="B75" s="21" t="s">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A75" s="18"/>
+      <c r="B75" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C75" s="22">
+      <c r="C75" s="7">
         <v>611</v>
       </c>
-      <c r="D75" s="22">
+      <c r="D75" s="7">
         <v>521</v>
       </c>
-      <c r="E75" s="23">
+      <c r="E75" s="8">
         <v>1</v>
       </c>
-      <c r="F75" s="22">
+      <c r="F75" s="7">
         <v>252</v>
       </c>
-      <c r="G75" s="23">
+      <c r="G75" s="8">
         <v>0.8</v>
       </c>
-      <c r="H75" s="22">
+      <c r="H75" s="7">
         <v>245</v>
       </c>
-      <c r="I75" s="23">
+      <c r="I75" s="8">
         <v>0.8</v>
       </c>
-      <c r="J75" s="22">
+      <c r="J75" s="7">
         <v>492</v>
       </c>
-      <c r="K75" s="23">
+      <c r="K75" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L75" s="22">
+      <c r="L75" s="7">
         <v>317</v>
       </c>
-      <c r="M75" s="23">
+      <c r="M75" s="8">
         <v>1</v>
       </c>
-      <c r="N75" s="22">
+      <c r="N75" s="7">
         <v>237</v>
       </c>
-      <c r="O75" s="23">
+      <c r="O75" s="8">
         <v>0.8</v>
       </c>
-      <c r="P75" s="23">
+      <c r="P75" s="8">
         <v>1</v>
       </c>
-      <c r="Q75" s="23">
+      <c r="Q75" s="8">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" s="24"/>
-      <c r="B76" s="21" t="s">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76" s="18"/>
+      <c r="B76" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C76" s="22">
+      <c r="C76" s="7">
         <v>354</v>
       </c>
-      <c r="D76" s="22">
+      <c r="D76" s="7">
         <v>310</v>
       </c>
-      <c r="E76" s="23">
+      <c r="E76" s="8">
         <v>1.7</v>
       </c>
-      <c r="F76" s="22">
+      <c r="F76" s="7">
         <v>119</v>
       </c>
-      <c r="G76" s="23">
+      <c r="G76" s="8">
         <v>1.3</v>
       </c>
-      <c r="H76" s="22">
+      <c r="H76" s="7">
         <v>129</v>
       </c>
-      <c r="I76" s="23">
+      <c r="I76" s="8">
         <v>1.4</v>
       </c>
-      <c r="J76" s="22">
+      <c r="J76" s="7">
         <v>294</v>
       </c>
-      <c r="K76" s="23">
+      <c r="K76" s="8">
         <v>1.9</v>
       </c>
-      <c r="L76" s="22">
+      <c r="L76" s="7">
         <v>158</v>
       </c>
-      <c r="M76" s="23">
+      <c r="M76" s="8">
         <v>1.6</v>
       </c>
-      <c r="N76" s="22">
+      <c r="N76" s="7">
         <v>124</v>
       </c>
-      <c r="O76" s="23">
+      <c r="O76" s="8">
         <v>1.3</v>
       </c>
-      <c r="P76" s="23">
+      <c r="P76" s="8">
         <v>1.8</v>
       </c>
-      <c r="Q76" s="23">
+      <c r="Q76" s="8">
         <v>1.9</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77" s="24"/>
-      <c r="B77" s="21" t="s">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A77" s="18"/>
+      <c r="B77" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C77" s="22">
+      <c r="C77" s="7">
         <v>236</v>
       </c>
-      <c r="D77" s="22">
+      <c r="D77" s="7">
         <v>194</v>
       </c>
-      <c r="E77" s="23">
+      <c r="E77" s="8">
         <v>2.9</v>
       </c>
-      <c r="F77" s="22">
+      <c r="F77" s="7">
         <v>96</v>
       </c>
-      <c r="G77" s="23">
+      <c r="G77" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H77" s="22">
+      <c r="H77" s="7">
         <v>96</v>
       </c>
-      <c r="I77" s="23">
+      <c r="I77" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J77" s="22">
+      <c r="J77" s="7">
         <v>182</v>
       </c>
-      <c r="K77" s="23">
+      <c r="K77" s="8">
         <v>3</v>
       </c>
-      <c r="L77" s="22">
+      <c r="L77" s="7">
         <v>122</v>
       </c>
-      <c r="M77" s="23">
+      <c r="M77" s="8">
         <v>2.7</v>
       </c>
-      <c r="N77" s="22">
+      <c r="N77" s="7">
         <v>91</v>
       </c>
-      <c r="O77" s="23">
+      <c r="O77" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P77" s="23">
+      <c r="P77" s="8">
         <v>2.9</v>
       </c>
-      <c r="Q77" s="23">
+      <c r="Q77" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78" s="24"/>
-      <c r="B78" s="21" t="s">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A78" s="18"/>
+      <c r="B78" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C78" s="22">
+      <c r="C78" s="7">
         <v>360</v>
       </c>
-      <c r="D78" s="22">
+      <c r="D78" s="7">
         <v>284</v>
       </c>
-      <c r="E78" s="23">
+      <c r="E78" s="8">
         <v>1.9</v>
       </c>
-      <c r="F78" s="22">
+      <c r="F78" s="7">
         <v>173</v>
       </c>
-      <c r="G78" s="23">
+      <c r="G78" s="8">
         <v>1.7</v>
       </c>
-      <c r="H78" s="22">
+      <c r="H78" s="7">
         <v>146</v>
       </c>
-      <c r="I78" s="23">
+      <c r="I78" s="8">
         <v>1.5</v>
       </c>
-      <c r="J78" s="22">
+      <c r="J78" s="7">
         <v>259</v>
       </c>
-      <c r="K78" s="23">
+      <c r="K78" s="8">
         <v>2</v>
       </c>
-      <c r="L78" s="22">
+      <c r="L78" s="7">
         <v>215</v>
       </c>
-      <c r="M78" s="23">
+      <c r="M78" s="8">
         <v>1.9</v>
       </c>
-      <c r="N78" s="22">
+      <c r="N78" s="7">
         <v>139</v>
       </c>
-      <c r="O78" s="23">
+      <c r="O78" s="8">
         <v>1.4</v>
       </c>
-      <c r="P78" s="23">
+      <c r="P78" s="8">
         <v>1.9</v>
       </c>
-      <c r="Q78" s="23">
+      <c r="Q78" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79" s="24"/>
-      <c r="B79" s="21" t="s">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A79" s="18"/>
+      <c r="B79" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C79" s="22">
+      <c r="C79" s="7">
         <v>473</v>
       </c>
-      <c r="D79" s="22">
+      <c r="D79" s="7">
         <v>398</v>
       </c>
-      <c r="E79" s="23">
+      <c r="E79" s="8">
         <v>1.4</v>
       </c>
-      <c r="F79" s="22">
+      <c r="F79" s="7">
         <v>189</v>
       </c>
-      <c r="G79" s="23">
+      <c r="G79" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H79" s="22">
+      <c r="H79" s="7">
         <v>191</v>
       </c>
-      <c r="I79" s="23">
+      <c r="I79" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J79" s="22">
+      <c r="J79" s="7">
         <v>372</v>
       </c>
-      <c r="K79" s="23">
+      <c r="K79" s="8">
         <v>1.5</v>
       </c>
-      <c r="L79" s="22">
+      <c r="L79" s="7">
         <v>243</v>
       </c>
-      <c r="M79" s="23">
+      <c r="M79" s="8">
         <v>1.3</v>
       </c>
-      <c r="N79" s="22">
+      <c r="N79" s="7">
         <v>185</v>
       </c>
-      <c r="O79" s="23">
+      <c r="O79" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P79" s="23">
+      <c r="P79" s="8">
         <v>1.4</v>
       </c>
-      <c r="Q79" s="23">
+      <c r="Q79" s="8">
         <v>1.5</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" s="24"/>
-      <c r="B80" s="21" t="s">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A80" s="18"/>
+      <c r="B80" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C80" s="22">
+      <c r="C80" s="7">
         <v>256</v>
       </c>
-      <c r="D80" s="22">
+      <c r="D80" s="7">
         <v>202</v>
       </c>
-      <c r="E80" s="23">
+      <c r="E80" s="8">
         <v>2.7</v>
       </c>
-      <c r="F80" s="22">
+      <c r="F80" s="7">
         <v>114</v>
       </c>
-      <c r="G80" s="23">
+      <c r="G80" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H80" s="22">
+      <c r="H80" s="7">
         <v>111</v>
       </c>
-      <c r="I80" s="23">
+      <c r="I80" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J80" s="22">
+      <c r="J80" s="7">
         <v>181</v>
       </c>
-      <c r="K80" s="23">
+      <c r="K80" s="8">
         <v>2.8</v>
       </c>
-      <c r="L80" s="22">
+      <c r="L80" s="7">
         <v>150</v>
       </c>
-      <c r="M80" s="23">
+      <c r="M80" s="8">
         <v>2.7</v>
       </c>
-      <c r="N80" s="22">
+      <c r="N80" s="7">
         <v>106</v>
       </c>
-      <c r="O80" s="23">
+      <c r="O80" s="8">
         <v>2.1</v>
       </c>
-      <c r="P80" s="23">
+      <c r="P80" s="8">
         <v>2.7</v>
       </c>
-      <c r="Q80" s="23">
+      <c r="Q80" s="8">
         <v>2.8</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A81" s="25"/>
-      <c r="B81" s="21" t="s">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A81" s="19"/>
+      <c r="B81" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C81" s="22">
+      <c r="C81" s="7">
         <v>381</v>
       </c>
-      <c r="D81" s="22">
+      <c r="D81" s="7">
         <v>302</v>
       </c>
-      <c r="E81" s="23">
+      <c r="E81" s="8">
         <v>1.8</v>
       </c>
-      <c r="F81" s="22">
+      <c r="F81" s="7">
         <v>175</v>
       </c>
-      <c r="G81" s="23">
+      <c r="G81" s="8">
         <v>1.5</v>
       </c>
-      <c r="H81" s="22">
+      <c r="H81" s="7">
         <v>164</v>
       </c>
-      <c r="I81" s="23">
+      <c r="I81" s="8">
         <v>1.4</v>
       </c>
-      <c r="J81" s="22">
+      <c r="J81" s="7">
         <v>276</v>
       </c>
-      <c r="K81" s="23">
+      <c r="K81" s="8">
         <v>1.9</v>
       </c>
-      <c r="L81" s="22">
+      <c r="L81" s="7">
         <v>219</v>
       </c>
-      <c r="M81" s="23">
+      <c r="M81" s="8">
         <v>1.8</v>
       </c>
-      <c r="N81" s="22">
+      <c r="N81" s="7">
         <v>156</v>
       </c>
-      <c r="O81" s="23">
+      <c r="O81" s="8">
         <v>1.4</v>
       </c>
-      <c r="P81" s="23">
+      <c r="P81" s="8">
         <v>1.8</v>
       </c>
-      <c r="Q81" s="23">
+      <c r="Q81" s="8">
         <v>1.9</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:17" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="29" t="s">
+    <row r="82" spans="1:17" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" spans="1:17" s="3" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="84" spans="1:17" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="29" t="s">
+    <row r="84" spans="1:17" s="3" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="1:17" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" s="3" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" s="3" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="86" spans="1:17" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+    <row r="87" spans="1:17" s="3" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" s="3" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:17" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:17" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="29">
     <mergeCell ref="A60:A66"/>
@@ -4287,7 +4289,7 @@
     <oddFooter>&amp;A _x000D_ Page: &amp;P of Pages: &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="46" max="16383" man="1"/>
+    <brk id="41" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>